--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harspatel\Documents\GitHub\Capella-QA-Automation\CapellaUI\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackermans\Documents\GitHub\Capella-QA-Automation\CapellaUI\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentLabsTest" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="125">
   <si>
     <t>paige</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>PROVIDERSTEAM</t>
+  </si>
+  <si>
+    <t>TEAMTYPE</t>
+  </si>
+  <si>
+    <t>Cook</t>
   </si>
 </sst>
 </file>
@@ -1478,9 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2866,18 +2870,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -2887,16 +2892,22 @@
       <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2908,9 +2919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -472,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,6 +508,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2870,7 +2873,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2882,7 +2885,7 @@
     <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -2895,8 +2898,9 @@
       <c r="D1" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="137">
   <si>
     <t>paige</t>
   </si>
@@ -399,6 +399,42 @@
   </si>
   <si>
     <t>Cook</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Yo Dude</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>yo.dude@villagehealth.com</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>APTSUITE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Vernon Hills</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>3 W Hawthorn Parkway</t>
   </si>
 </sst>
 </file>
@@ -510,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2873,7 +2909,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2883,9 +2919,16 @@
     <col min="2" max="2" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -2898,9 +2941,29 @@
       <c r="D1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2913,8 +2976,32 @@
       <c r="D2" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="3">
+        <v>209</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="3">
+        <v>60061</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automation_github\Capella-QA-Automation\CapellaUI\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentLabsTest" sheetId="6" r:id="rId1"/>
-    <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId2"/>
-    <sheet name="PerformanceTest" sheetId="9" r:id="rId3"/>
-    <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId4"/>
-    <sheet name="ReferralsTest" sheetId="11" r:id="rId5"/>
-    <sheet name="UnitTest" sheetId="2" r:id="rId6"/>
+    <sheet name="ManageDocumentsTest" sheetId="12" r:id="rId2"/>
+    <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId3"/>
+    <sheet name="PerformanceTest" sheetId="9" r:id="rId4"/>
+    <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId5"/>
+    <sheet name="ReferralsTest" sheetId="11" r:id="rId6"/>
+    <sheet name="UnitTest" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="133">
   <si>
     <t>paige</t>
   </si>
@@ -400,13 +406,31 @@
   </si>
   <si>
     <t>TONY</t>
+  </si>
+  <si>
+    <t>Emelita Coulahan</t>
+  </si>
+  <si>
+    <t>Verify add document automation</t>
+  </si>
+  <si>
+    <t>DOCUMENTDESCRITION</t>
+  </si>
+  <si>
+    <t>Diabetic Retinal Eye Exam Verification</t>
+  </si>
+  <si>
+    <t>DOCUMENTTYPEOPTION</t>
+  </si>
+  <si>
+    <t>verify_AddingaDocument</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +457,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -473,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,6 +542,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,6 +553,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,7 +604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1484,8 +1519,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK11"/>
   <sheetViews>
@@ -2882,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2938,11 +3088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2994,7 +3144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automation_github\Capella-QA-Automation\CapellaUI\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackermans\Documents\GitHub\Capella-QA-Automation\CapellaUI\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentLabsTest" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="154">
   <si>
     <t>paige</t>
   </si>
@@ -424,6 +424,69 @@
   </si>
   <si>
     <t>verify_AddingaDocument</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>APTSUITE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>OTHERPHONE</t>
+  </si>
+  <si>
+    <t>ALLOWCOMMUNICATION</t>
+  </si>
+  <si>
+    <t>FAXNUMBERVERIFIED</t>
+  </si>
+  <si>
+    <t>PATIENTSEEINGSINCE</t>
+  </si>
+  <si>
+    <t>Aasaf Whoriskey</t>
+  </si>
+  <si>
+    <t>yo.dude@villagehealth.com</t>
+  </si>
+  <si>
+    <t>3 W Hawthorn Parkway</t>
+  </si>
+  <si>
+    <t>Vernon Hills</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>(847) 123-1234</t>
+  </si>
+  <si>
+    <t>(847) 123-1235</t>
+  </si>
+  <si>
+    <t>(847) 123-1236</t>
+  </si>
+  <si>
+    <t>verify_AddingProvider</t>
   </si>
 </sst>
 </file>
@@ -504,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,6 +606,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -850,9 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1519,9 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1634,9 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1798,49 +1862,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1957,13 +2019,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D2" s="3">
@@ -1987,7 +2049,6 @@
       <c r="J2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2064,13 +2125,13 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="3">
@@ -2094,7 +2155,6 @@
       <c r="J3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2171,16 +2231,16 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>-3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2201,7 +2261,6 @@
       <c r="J4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2278,16 +2337,16 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>-3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2308,7 +2367,6 @@
       <c r="J5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2385,16 +2443,16 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>-3</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2415,7 +2473,6 @@
       <c r="J6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2492,16 +2549,16 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>-3</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2522,7 +2579,6 @@
       <c r="J7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2599,16 +2655,16 @@
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>-3</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2629,7 +2685,6 @@
       <c r="J8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2706,16 +2761,16 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>-3</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -2736,7 +2791,6 @@
       <c r="J9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2813,16 +2867,16 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>-3</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2843,7 +2897,6 @@
       <c r="J10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2920,16 +2973,16 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>-3</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2950,7 +3003,6 @@
       <c r="J11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3034,22 +3086,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -3065,8 +3125,44 @@
       <c r="E1" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3074,7 +3170,7 @@
         <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>119</v>
@@ -3082,8 +3178,92 @@
       <c r="E2" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3">
+        <v>209</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="3">
+        <v>60061</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="Q4" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3092,9 +3272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3148,13 +3326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="154">
   <si>
     <t>paige</t>
   </si>
@@ -462,9 +462,6 @@
     <t>PATIENTSEEINGSINCE</t>
   </si>
   <si>
-    <t>Aasaf Whoriskey</t>
-  </si>
-  <si>
     <t>yo.dude@villagehealth.com</t>
   </si>
   <si>
@@ -487,6 +484,9 @@
   </si>
   <si>
     <t>verify_AddingProvider</t>
+  </si>
+  <si>
+    <t>8/4/2017</t>
   </si>
 </sst>
 </file>
@@ -609,10 +609,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3086,7 +3086,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3094,7 +3094,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -3106,7 +3106,7 @@
     <col min="12" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3170,7 +3170,7 @@
         <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>119</v>
@@ -3179,31 +3179,31 @@
         <v>120</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="H2" s="3">
         <v>209</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="K2" s="3">
         <v>60061</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>12</v>
@@ -3211,8 +3211,8 @@
       <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="15">
-        <v>42950</v>
+      <c r="Q2" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>119</v>
@@ -3232,7 +3232,7 @@
         <v>120</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3244,10 +3244,10 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3259,12 +3259,52 @@
       <c r="K4" s="3"/>
       <c r="Q4" s="16"/>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentLabsTest" sheetId="6" r:id="rId1"/>
     <sheet name="ManageDocumentsTest" sheetId="12" r:id="rId2"/>
-    <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId3"/>
-    <sheet name="PerformanceTest" sheetId="9" r:id="rId4"/>
-    <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId5"/>
-    <sheet name="ReferralsTest" sheetId="11" r:id="rId6"/>
-    <sheet name="UnitTest" sheetId="2" r:id="rId7"/>
+    <sheet name="MaterialFulfillmentTeat" sheetId="13" r:id="rId3"/>
+    <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId4"/>
+    <sheet name="PerformanceTest" sheetId="9" r:id="rId5"/>
+    <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId6"/>
+    <sheet name="ReferralsTest" sheetId="11" r:id="rId7"/>
+    <sheet name="UnitTest" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="159">
   <si>
     <t>paige</t>
   </si>
@@ -487,6 +488,21 @@
   </si>
   <si>
     <t>8/4/2017</t>
+  </si>
+  <si>
+    <t>ASSOCIATEAS</t>
+  </si>
+  <si>
+    <t>PCP</t>
+  </si>
+  <si>
+    <t>DAVITA DELTONA DIALYSIS</t>
+  </si>
+  <si>
+    <t>Aasaf Whoriskey</t>
+  </si>
+  <si>
+    <t>orderMaterial</t>
   </si>
 </sst>
 </file>
@@ -1698,6 +1714,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1858,7 +1914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK11"/>
   <sheetViews>
@@ -3084,11 +3140,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3107,9 +3163,11 @@
     <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -3161,11 +3219,15 @@
       <c r="Q1" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="R1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
@@ -3215,10 +3277,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
@@ -3241,13 +3301,15 @@
       <c r="K3" s="3"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3258,41 +3320,47 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>156</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.25">
@@ -3308,7 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3362,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="159">
   <si>
     <t>paige</t>
   </si>
@@ -502,7 +502,7 @@
     <t>Aasaf Whoriskey</t>
   </si>
   <si>
-    <t>orderMaterial</t>
+    <t>verify_OrderingMaterial</t>
   </si>
 </sst>
 </file>
@@ -1714,18 +1714,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -1735,17 +1735,17 @@
       <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentLabsTest" sheetId="6" r:id="rId1"/>
     <sheet name="ManageDocumentsTest" sheetId="12" r:id="rId2"/>
-    <sheet name="MaterialFulfillmentTeat" sheetId="13" r:id="rId3"/>
+    <sheet name="MaterialFulfillmentTest" sheetId="13" r:id="rId3"/>
     <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId4"/>
     <sheet name="PerformanceTest" sheetId="9" r:id="rId5"/>
     <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId6"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
   <si>
     <t>paige</t>
   </si>
@@ -503,6 +503,42 @@
   </si>
   <si>
     <t>verify_OrderingMaterial</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>DATEREQUESTED</t>
+  </si>
+  <si>
+    <t>REQUESTEDBY</t>
+  </si>
+  <si>
+    <t>TANYA COOK</t>
+  </si>
+  <si>
+    <t>FOLLOWUP</t>
+  </si>
+  <si>
+    <t>ORDERTYPE</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>FULFILLEDBY</t>
+  </si>
+  <si>
+    <t>FULFILLEDON</t>
+  </si>
+  <si>
+    <t>Mail Order</t>
+  </si>
+  <si>
+    <t>Fitness &amp; Heart Disease</t>
+  </si>
+  <si>
+    <t>Cholesterol Facts(Spanish)</t>
   </si>
 </sst>
 </file>
@@ -1714,18 +1750,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -1735,8 +1780,29 @@
       <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1745,6 +1811,53 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/CapellaUI/resources/TestData.xlsx
+++ b/CapellaUI/resources/TestData.xlsx
@@ -8,18 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="CurrentLabsTest" sheetId="6" r:id="rId1"/>
-    <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId2"/>
-    <sheet name="PerformanceTest" sheetId="9" r:id="rId3"/>
-    <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId4"/>
-    <sheet name="ReferralsTest" sheetId="11" r:id="rId5"/>
-    <sheet name="UnitTest" sheetId="2" r:id="rId6"/>
+    <sheet name="ManageDocumentsTest" sheetId="12" r:id="rId2"/>
+    <sheet name="MaterialFulfillmentTest" sheetId="13" r:id="rId3"/>
+    <sheet name="MedicalEquipmentTest" sheetId="8" r:id="rId4"/>
+    <sheet name="PerformanceTest" sheetId="9" r:id="rId5"/>
+    <sheet name="ProvidersTeamTest" sheetId="10" r:id="rId6"/>
+    <sheet name="ReferralsTest" sheetId="11" r:id="rId7"/>
+    <sheet name="UnitTest" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>paige</t>
   </si>
@@ -400,13 +402,148 @@
   </si>
   <si>
     <t>TONY</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>APTSUITE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>yo.dude@villagehealth.com</t>
+  </si>
+  <si>
+    <t>3 W Hawthorn Parkway</t>
+  </si>
+  <si>
+    <t>Vernon Hills</t>
+  </si>
+  <si>
+    <t>DOCUMENTDESCRITION</t>
+  </si>
+  <si>
+    <t>DOCUMENTTYPEOPTION</t>
+  </si>
+  <si>
+    <t>verify_AddingaDocument</t>
+  </si>
+  <si>
+    <t>Emelita Coulahan</t>
+  </si>
+  <si>
+    <t>Verify add document automation</t>
+  </si>
+  <si>
+    <t>Diabetic Retinal Eye Exam Verification</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>DATEREQUESTED</t>
+  </si>
+  <si>
+    <t>REQUESTEDBY</t>
+  </si>
+  <si>
+    <t>FOLLOWUP</t>
+  </si>
+  <si>
+    <t>ORDERTYPE</t>
+  </si>
+  <si>
+    <t>FULFILLEDBY</t>
+  </si>
+  <si>
+    <t>FULFILLEDON</t>
+  </si>
+  <si>
+    <t>verify_OrderingMaterial</t>
+  </si>
+  <si>
+    <t>Aasaf Whoriskey</t>
+  </si>
+  <si>
+    <t>Cholesterol Facts(Spanish)</t>
+  </si>
+  <si>
+    <t>TANYA COOK</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Fitness &amp; Heart Disease</t>
+  </si>
+  <si>
+    <t>Mail Order</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>OTHERPHONE</t>
+  </si>
+  <si>
+    <t>ALLOWCOMMUNICATION</t>
+  </si>
+  <si>
+    <t>FAXNUMBERVERIFIED</t>
+  </si>
+  <si>
+    <t>PATIENTSEEINGSINCE</t>
+  </si>
+  <si>
+    <t>ASSOCIATEAS</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>(847) 123-1234</t>
+  </si>
+  <si>
+    <t>(847) 123-1235</t>
+  </si>
+  <si>
+    <t>(847) 123-1236</t>
+  </si>
+  <si>
+    <t>8/4/2017</t>
+  </si>
+  <si>
+    <t>verify_AddingProvider</t>
+  </si>
+  <si>
+    <t>DAVITA DELTONA DIALYSIS</t>
+  </si>
+  <si>
+    <t>PCP</t>
+  </si>
+  <si>
+    <t>TINA ALLEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +570,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -473,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,6 +655,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,6 +673,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -815,9 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1484,8 +1637,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E3" sqref="A1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,19 +2027,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -1691,9 +2074,16 @@
     <col min="35" max="35" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -1805,8 +2195,29 @@
       <c r="AK1" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1912,8 +2323,29 @@
       <c r="AK2" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2019,8 +2451,25 @@
       <c r="AK3" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2126,8 +2575,29 @@
       <c r="AK4" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2233,8 +2703,25 @@
       <c r="AK5" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2340,8 +2827,29 @@
       <c r="AK6" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2447,8 +2955,25 @@
       <c r="AK7" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2554,8 +3079,29 @@
       <c r="AK8" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2661,8 +3207,25 @@
       <c r="AK9" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2768,8 +3331,29 @@
       <c r="AK10" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2875,6 +3459,23 @@
       <c r="AK11" s="6">
         <v>30</v>
       </c>
+      <c r="AL11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2882,13 +3483,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2897,9 +3496,15 @@
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -2915,11 +3520,51 @@
       <c r="E1" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
@@ -2932,17 +3577,109 @@
       <c r="E2" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="F2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="3">
+        <v>209</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="3">
+        <v>60061</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="Q3" s="16"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" t="s">
+        <v>169</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2994,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
